--- a/CPI_1970_2017_long.xlsx
+++ b/CPI_1970_2017_long.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankh\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA33DC8-8312-4ECC-BC89-2BBADE57D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,11 +31,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +99,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -171,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -205,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,14 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,15 +416,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>25569</v>
       </c>
       <c r="B2">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>25600</v>
       </c>
@@ -411,15 +432,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>25628</v>
       </c>
       <c r="B4">
-        <v>38.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>25659</v>
       </c>
@@ -427,7 +448,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>25689</v>
       </c>
@@ -435,15 +456,15 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>25720</v>
       </c>
       <c r="B7">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>25750</v>
       </c>
@@ -451,7 +472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>25781</v>
       </c>
@@ -459,15 +480,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>25812</v>
       </c>
       <c r="B10">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>25842</v>
       </c>
@@ -475,7 +496,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>25873</v>
       </c>
@@ -483,23 +504,23 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>25903</v>
       </c>
       <c r="B13">
-        <v>39.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>25934</v>
       </c>
       <c r="B14">
-        <v>39.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>25965</v>
       </c>
@@ -507,7 +528,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>25993</v>
       </c>
@@ -515,7 +536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>26024</v>
       </c>
@@ -523,15 +544,15 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>26054</v>
       </c>
       <c r="B18">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>26085</v>
       </c>
@@ -539,31 +560,31 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>26115</v>
       </c>
       <c r="B20">
-        <v>40.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>26146</v>
       </c>
       <c r="B21">
-        <v>40.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>26177</v>
       </c>
       <c r="B22">
-        <v>40.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>26207</v>
       </c>
@@ -571,7 +592,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>26238</v>
       </c>
@@ -579,7 +600,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>26268</v>
       </c>
@@ -587,7 +608,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>26299</v>
       </c>
@@ -595,7 +616,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26330</v>
       </c>
@@ -603,7 +624,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26359</v>
       </c>
@@ -611,7 +632,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>26390</v>
       </c>
@@ -619,7 +640,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>26420</v>
       </c>
@@ -627,7 +648,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>26451</v>
       </c>
@@ -635,7 +656,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>26481</v>
       </c>
@@ -643,7 +664,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>26512</v>
       </c>
@@ -651,7 +672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>26543</v>
       </c>
@@ -659,7 +680,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>26573</v>
       </c>
@@ -667,7 +688,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>26604</v>
       </c>
@@ -675,7 +696,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>26634</v>
       </c>
@@ -683,7 +704,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>26665</v>
       </c>
@@ -691,7 +712,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>26696</v>
       </c>
@@ -699,7 +720,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>26724</v>
       </c>
@@ -707,7 +728,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>26755</v>
       </c>
@@ -715,7 +736,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>26785</v>
       </c>
@@ -723,7 +744,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>26816</v>
       </c>
@@ -731,7 +752,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>26846</v>
       </c>
@@ -739,7 +760,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>26877</v>
       </c>
@@ -747,7 +768,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>26908</v>
       </c>
@@ -755,7 +776,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>26938</v>
       </c>
@@ -763,7 +784,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>26969</v>
       </c>
@@ -771,7 +792,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>26999</v>
       </c>
@@ -779,7 +800,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>27030</v>
       </c>
@@ -787,7 +808,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>27061</v>
       </c>
@@ -795,7 +816,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>27089</v>
       </c>
@@ -803,7 +824,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>27120</v>
       </c>
@@ -811,7 +832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>27150</v>
       </c>
@@ -819,7 +840,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>27181</v>
       </c>
@@ -827,7 +848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>27211</v>
       </c>
@@ -835,7 +856,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>27242</v>
       </c>
@@ -843,7 +864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>27273</v>
       </c>
@@ -851,7 +872,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>27303</v>
       </c>
@@ -859,7 +880,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>27334</v>
       </c>
@@ -867,7 +888,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>27364</v>
       </c>
@@ -875,7 +896,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>27395</v>
       </c>
@@ -883,7 +904,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>27426</v>
       </c>
@@ -891,7 +912,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>27454</v>
       </c>
@@ -899,7 +920,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>27485</v>
       </c>
@@ -907,7 +928,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>27515</v>
       </c>
@@ -915,7 +936,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>27546</v>
       </c>
@@ -923,7 +944,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>27576</v>
       </c>
@@ -931,7 +952,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>27607</v>
       </c>
@@ -939,7 +960,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>27638</v>
       </c>
@@ -947,7 +968,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>27668</v>
       </c>
@@ -955,7 +976,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>27699</v>
       </c>
@@ -963,7 +984,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>27729</v>
       </c>
@@ -971,7 +992,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>27760</v>
       </c>
@@ -979,7 +1000,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>27791</v>
       </c>
@@ -987,7 +1008,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>27820</v>
       </c>
@@ -995,7 +1016,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>27851</v>
       </c>
@@ -1003,7 +1024,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>27881</v>
       </c>
@@ -1011,7 +1032,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>27912</v>
       </c>
@@ -1019,7 +1040,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>27942</v>
       </c>
@@ -1027,7 +1048,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>27973</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>28004</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>28034</v>
       </c>
@@ -1051,7 +1072,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>28065</v>
       </c>
@@ -1059,7 +1080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>28095</v>
       </c>
@@ -1067,7 +1088,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>28126</v>
       </c>
@@ -1075,7 +1096,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>28157</v>
       </c>
@@ -1083,7 +1104,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>28185</v>
       </c>
@@ -1091,7 +1112,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>28216</v>
       </c>
@@ -1099,7 +1120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>28246</v>
       </c>
@@ -1107,7 +1128,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>28277</v>
       </c>
@@ -1115,7 +1136,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>28307</v>
       </c>
@@ -1123,7 +1144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>28338</v>
       </c>
@@ -1131,7 +1152,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>28369</v>
       </c>
@@ -1139,7 +1160,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>28399</v>
       </c>
@@ -1147,7 +1168,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>28430</v>
       </c>
@@ -1155,7 +1176,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>28460</v>
       </c>
@@ -1163,7 +1184,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>28491</v>
       </c>
@@ -1171,7 +1192,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>28522</v>
       </c>
@@ -1179,7 +1200,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>28550</v>
       </c>
@@ -1187,7 +1208,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>28581</v>
       </c>
@@ -1195,7 +1216,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>28611</v>
       </c>
@@ -1203,7 +1224,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>28642</v>
       </c>
@@ -1211,7 +1232,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>28672</v>
       </c>
@@ -1219,7 +1240,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>28703</v>
       </c>
@@ -1227,7 +1248,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>28734</v>
       </c>
@@ -1235,23 +1256,23 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>28764</v>
       </c>
       <c r="B107">
-        <v>67.09999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>28795</v>
       </c>
       <c r="B108">
-        <v>67.40000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>28825</v>
       </c>
@@ -1259,7 +1280,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>28856</v>
       </c>
@@ -1267,15 +1288,15 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>28887</v>
       </c>
       <c r="B111">
-        <v>69.09999999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>28915</v>
       </c>
@@ -1283,15 +1304,15 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>28946</v>
       </c>
       <c r="B113">
-        <v>70.59999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>28976</v>
       </c>
@@ -1299,7 +1320,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>29007</v>
       </c>
@@ -1307,15 +1328,15 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>29037</v>
       </c>
       <c r="B116">
-        <v>73.09999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>29068</v>
       </c>
@@ -1323,15 +1344,15 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>29099</v>
       </c>
       <c r="B118">
-        <v>74.59999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>29129</v>
       </c>
@@ -1339,15 +1360,15 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>29160</v>
       </c>
       <c r="B120">
-        <v>75.90000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>29190</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>29221</v>
       </c>
@@ -1363,23 +1384,23 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>29252</v>
       </c>
       <c r="B123">
-        <v>78.90000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>29281</v>
       </c>
       <c r="B124">
-        <v>80.09999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>29312</v>
       </c>
@@ -1387,7 +1408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>29342</v>
       </c>
@@ -1395,7 +1416,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>29373</v>
       </c>
@@ -1403,7 +1424,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>29403</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>29434</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>29465</v>
       </c>
@@ -1427,7 +1448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>29495</v>
       </c>
@@ -1435,7 +1456,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>29526</v>
       </c>
@@ -1443,7 +1464,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>29556</v>
       </c>
@@ -1451,7 +1472,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>29587</v>
       </c>
@@ -1459,15 +1480,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>29618</v>
       </c>
       <c r="B135">
-        <v>87.90000000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>29646</v>
       </c>
@@ -1475,15 +1496,15 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>29677</v>
       </c>
       <c r="B137">
-        <v>89.09999999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>29707</v>
       </c>
@@ -1491,23 +1512,23 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>29738</v>
       </c>
       <c r="B139">
-        <v>90.59999999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>29768</v>
       </c>
       <c r="B140">
-        <v>91.59999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>29799</v>
       </c>
@@ -1515,7 +1536,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>29830</v>
       </c>
@@ -1523,15 +1544,15 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>29860</v>
       </c>
       <c r="B143">
-        <v>93.40000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>29891</v>
       </c>
@@ -1539,7 +1560,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>29921</v>
       </c>
@@ -1547,7 +1568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>29952</v>
       </c>
@@ -1555,15 +1576,15 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>29983</v>
       </c>
       <c r="B147">
-        <v>94.59999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>30011</v>
       </c>
@@ -1571,15 +1592,15 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>30042</v>
       </c>
       <c r="B149">
-        <v>94.90000000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>30072</v>
       </c>
@@ -1587,7 +1608,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>30103</v>
       </c>
@@ -1595,7 +1616,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>30133</v>
       </c>
@@ -1603,7 +1624,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>30164</v>
       </c>
@@ -1611,15 +1632,15 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>30195</v>
       </c>
       <c r="B154">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>30225</v>
       </c>
@@ -1627,7 +1648,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>30256</v>
       </c>
@@ -1635,15 +1656,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>30286</v>
       </c>
       <c r="B157">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>30317</v>
       </c>
@@ -1651,31 +1672,31 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>30348</v>
       </c>
       <c r="B159">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>30376</v>
       </c>
       <c r="B160">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>30407</v>
       </c>
       <c r="B161">
-        <v>98.59999999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>30437</v>
       </c>
@@ -1683,7 +1704,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>30468</v>
       </c>
@@ -1691,15 +1712,15 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>30498</v>
       </c>
       <c r="B164">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>30529</v>
       </c>
@@ -1707,7 +1728,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>30560</v>
       </c>
@@ -1715,7 +1736,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>30590</v>
       </c>
@@ -1723,7 +1744,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>30621</v>
       </c>
@@ -1731,7 +1752,7 @@
         <v>101.2</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>30651</v>
       </c>
@@ -1739,7 +1760,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>30682</v>
       </c>
@@ -1747,7 +1768,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>30713</v>
       </c>
@@ -1755,7 +1776,7 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>30742</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>30773</v>
       </c>
@@ -1771,7 +1792,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>30803</v>
       </c>
@@ -1779,7 +1800,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>30834</v>
       </c>
@@ -1787,7 +1808,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>30864</v>
       </c>
@@ -1795,7 +1816,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>30895</v>
       </c>
@@ -1803,7 +1824,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>30926</v>
       </c>
@@ -1811,7 +1832,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>30956</v>
       </c>
@@ -1819,7 +1840,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>30987</v>
       </c>
@@ -1827,7 +1848,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>31017</v>
       </c>
@@ -1835,7 +1856,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>31048</v>
       </c>
@@ -1843,7 +1864,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>31079</v>
       </c>
@@ -1851,7 +1872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>31107</v>
       </c>
@@ -1859,7 +1880,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>31138</v>
       </c>
@@ -1867,7 +1888,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>31168</v>
       </c>
@@ -1875,7 +1896,7 @@
         <v>107.3</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>31199</v>
       </c>
@@ -1883,7 +1904,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>31229</v>
       </c>
@@ -1891,7 +1912,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>31260</v>
       </c>
@@ -1899,7 +1920,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>31291</v>
       </c>
@@ -1907,7 +1928,7 @@
         <v>108.3</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>31321</v>
       </c>
@@ -1915,7 +1936,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>31352</v>
       </c>
@@ -1923,7 +1944,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>31382</v>
       </c>
@@ -1931,7 +1952,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>31413</v>
       </c>
@@ -1939,7 +1960,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>31444</v>
       </c>
@@ -1947,7 +1968,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>31472</v>
       </c>
@@ -1955,7 +1976,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>31503</v>
       </c>
@@ -1963,7 +1984,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>31533</v>
       </c>
@@ -1971,7 +1992,7 @@
         <v>108.9</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>31564</v>
       </c>
@@ -1979,7 +2000,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>31594</v>
       </c>
@@ -1987,7 +2008,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>31625</v>
       </c>
@@ -1995,7 +2016,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>31656</v>
       </c>
@@ -2003,7 +2024,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>31686</v>
       </c>
@@ -2011,7 +2032,7 @@
         <v>110.3</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>31717</v>
       </c>
@@ -2019,7 +2040,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>31747</v>
       </c>
@@ -2027,7 +2048,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>31778</v>
       </c>
@@ -2035,7 +2056,7 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>31809</v>
       </c>
@@ -2043,7 +2064,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>31837</v>
       </c>
@@ -2051,7 +2072,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>31868</v>
       </c>
@@ -2059,7 +2080,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>31898</v>
       </c>
@@ -2067,7 +2088,7 @@
         <v>113.1</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>31929</v>
       </c>
@@ -2075,7 +2096,7 @@
         <v>113.5</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>31959</v>
       </c>
@@ -2083,7 +2104,7 @@
         <v>113.8</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>31990</v>
       </c>
@@ -2091,7 +2112,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>32021</v>
       </c>
@@ -2099,7 +2120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>32051</v>
       </c>
@@ -2107,7 +2128,7 @@
         <v>115.3</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>32082</v>
       </c>
@@ -2115,7 +2136,7 @@
         <v>115.4</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>32112</v>
       </c>
@@ -2123,7 +2144,7 @@
         <v>115.4</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>32143</v>
       </c>
@@ -2131,7 +2152,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>32174</v>
       </c>
@@ -2139,7 +2160,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>32203</v>
       </c>
@@ -2147,7 +2168,7 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>32234</v>
       </c>
@@ -2155,7 +2176,7 @@
         <v>117.1</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>32264</v>
       </c>
@@ -2163,7 +2184,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>32295</v>
       </c>
@@ -2171,7 +2192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>32325</v>
       </c>
@@ -2179,7 +2200,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>32356</v>
       </c>
@@ -2187,7 +2208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>32387</v>
       </c>
@@ -2195,7 +2216,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>32417</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>32448</v>
       </c>
@@ -2211,7 +2232,7 @@
         <v>120.3</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>32478</v>
       </c>
@@ -2219,7 +2240,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>32509</v>
       </c>
@@ -2227,7 +2248,7 @@
         <v>121.1</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>32540</v>
       </c>
@@ -2235,7 +2256,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>32568</v>
       </c>
@@ -2243,7 +2264,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>32599</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>32629</v>
       </c>
@@ -2259,7 +2280,7 @@
         <v>123.8</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>32660</v>
       </c>
@@ -2267,7 +2288,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>32690</v>
       </c>
@@ -2275,7 +2296,7 @@
         <v>124.4</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>32721</v>
       </c>
@@ -2283,7 +2304,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>32752</v>
       </c>
@@ -2291,7 +2312,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>32782</v>
       </c>
@@ -2299,7 +2320,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>32813</v>
       </c>
@@ -2307,7 +2328,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>32843</v>
       </c>
@@ -2315,7 +2336,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>32874</v>
       </c>
@@ -2323,7 +2344,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>32905</v>
       </c>
@@ -2331,15 +2352,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>32933</v>
       </c>
       <c r="B244">
-        <v>128.7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>128.69999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>32964</v>
       </c>
@@ -2347,15 +2368,15 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>32994</v>
       </c>
       <c r="B246">
-        <v>129.2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>33025</v>
       </c>
@@ -2363,7 +2384,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>33055</v>
       </c>
@@ -2371,7 +2392,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>33086</v>
       </c>
@@ -2379,15 +2400,15 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>33117</v>
       </c>
       <c r="B250">
-        <v>132.7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>132.69999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>33147</v>
       </c>
@@ -2395,23 +2416,23 @@
         <v>133.5</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>33178</v>
       </c>
       <c r="B252">
-        <v>133.8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>33208</v>
       </c>
       <c r="B253">
-        <v>133.8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>33239</v>
       </c>
@@ -2419,15 +2440,15 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>33270</v>
       </c>
       <c r="B255">
-        <v>134.8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>33298</v>
       </c>
@@ -2435,15 +2456,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>33329</v>
       </c>
       <c r="B257">
-        <v>135.2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>33359</v>
       </c>
@@ -2451,7 +2472,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>33390</v>
       </c>
@@ -2459,15 +2480,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>33420</v>
       </c>
       <c r="B260">
-        <v>136.2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>136.19999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>33451</v>
       </c>
@@ -2475,15 +2496,15 @@
         <v>136.6</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>33482</v>
       </c>
       <c r="B262">
-        <v>137.2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>33512</v>
       </c>
@@ -2491,15 +2512,15 @@
         <v>137.4</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>33543</v>
       </c>
       <c r="B264">
-        <v>137.8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>33573</v>
       </c>
@@ -2507,7 +2528,7 @@
         <v>137.9</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>33604</v>
       </c>
@@ -2515,7 +2536,7 @@
         <v>138.1</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>33635</v>
       </c>
@@ -2523,15 +2544,15 @@
         <v>138.6</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>33664</v>
       </c>
       <c r="B268">
-        <v>139.3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>33695</v>
       </c>
@@ -2539,23 +2560,23 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>33725</v>
       </c>
       <c r="B270">
-        <v>139.7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>139.69999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>33756</v>
       </c>
       <c r="B271">
-        <v>140.2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>140.19999999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>33786</v>
       </c>
@@ -2563,7 +2584,7 @@
         <v>140.5</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>33817</v>
       </c>
@@ -2571,23 +2592,23 @@
         <v>140.9</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>33848</v>
       </c>
       <c r="B274">
-        <v>141.3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>141.30000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>33878</v>
       </c>
       <c r="B275">
-        <v>141.8</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>141.80000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>33909</v>
       </c>
@@ -2595,7 +2616,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>33939</v>
       </c>
@@ -2603,7 +2624,7 @@
         <v>141.9</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>33970</v>
       </c>
@@ -2611,7 +2632,7 @@
         <v>142.6</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>34001</v>
       </c>
@@ -2619,7 +2640,7 @@
         <v>143.1</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>34029</v>
       </c>
@@ -2627,7 +2648,7 @@
         <v>143.6</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>34060</v>
       </c>
@@ -2635,15 +2656,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>34090</v>
       </c>
       <c r="B282">
-        <v>144.2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>144.19999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>34121</v>
       </c>
@@ -2651,7 +2672,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>34151</v>
       </c>
@@ -2659,15 +2680,15 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>34182</v>
       </c>
       <c r="B285">
-        <v>144.8</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>144.80000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>34213</v>
       </c>
@@ -2675,55 +2696,55 @@
         <v>145.1</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>34243</v>
       </c>
       <c r="B287">
-        <v>145.7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>145.69999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>34274</v>
       </c>
       <c r="B288">
-        <v>145.8</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>145.80000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>34304</v>
       </c>
       <c r="B289">
-        <v>145.8</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>145.80000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>34335</v>
       </c>
       <c r="B290">
-        <v>146.2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>146.19999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>34366</v>
       </c>
       <c r="B291">
-        <v>146.7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>146.69999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>34394</v>
       </c>
       <c r="B292">
-        <v>147.2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>34425</v>
       </c>
@@ -2731,7 +2752,7 @@
         <v>147.4</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>34455</v>
       </c>
@@ -2739,7 +2760,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>34486</v>
       </c>
@@ -2747,7 +2768,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>34516</v>
       </c>
@@ -2755,7 +2776,7 @@
         <v>148.4</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>34547</v>
       </c>
@@ -2763,7 +2784,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>34578</v>
       </c>
@@ -2771,7 +2792,7 @@
         <v>149.4</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>34608</v>
       </c>
@@ -2779,31 +2800,31 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>34639</v>
       </c>
       <c r="B300">
-        <v>149.7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>34669</v>
       </c>
       <c r="B301">
-        <v>149.7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>34700</v>
       </c>
       <c r="B302">
-        <v>150.3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>150.30000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>34731</v>
       </c>
@@ -2811,7 +2832,7 @@
         <v>150.9</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>34759</v>
       </c>
@@ -2819,7 +2840,7 @@
         <v>151.4</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>34790</v>
       </c>
@@ -2827,15 +2848,15 @@
         <v>151.9</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>34820</v>
       </c>
       <c r="B306">
-        <v>152.2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>152.19999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>34851</v>
       </c>
@@ -2843,7 +2864,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>34881</v>
       </c>
@@ -2851,7 +2872,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>34912</v>
       </c>
@@ -2859,23 +2880,23 @@
         <v>152.9</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>34943</v>
       </c>
       <c r="B310">
-        <v>153.2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>153.19999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>34973</v>
       </c>
       <c r="B311">
-        <v>153.7</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <v>153.69999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>35004</v>
       </c>
@@ -2883,7 +2904,7 @@
         <v>153.6</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>35034</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>153.5</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>35065</v>
       </c>
@@ -2899,7 +2920,7 @@
         <v>154.4</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>35096</v>
       </c>
@@ -2907,23 +2928,23 @@
         <v>154.9</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>35125</v>
       </c>
       <c r="B316">
-        <v>155.7</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>155.69999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>35156</v>
       </c>
       <c r="B317">
-        <v>156.3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>35186</v>
       </c>
@@ -2931,15 +2952,15 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>35217</v>
       </c>
       <c r="B319">
-        <v>156.7</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>35247</v>
       </c>
@@ -2947,31 +2968,31 @@
         <v>157</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>35278</v>
       </c>
       <c r="B321">
-        <v>157.3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>35309</v>
       </c>
       <c r="B322">
-        <v>157.8</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>157.80000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>35339</v>
       </c>
       <c r="B323">
-        <v>158.3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>35370</v>
       </c>
@@ -2979,7 +3000,7 @@
         <v>158.6</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>35400</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>158.6</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>35431</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>159.1</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>35462</v>
       </c>
@@ -3003,7 +3024,7 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>35490</v>
       </c>
@@ -3011,15 +3032,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>35521</v>
       </c>
       <c r="B329">
-        <v>160.2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>35551</v>
       </c>
@@ -3027,15 +3048,15 @@
         <v>160.1</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>35582</v>
       </c>
       <c r="B331">
-        <v>160.3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>160.30000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>35612</v>
       </c>
@@ -3043,23 +3064,23 @@
         <v>160.5</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>35643</v>
       </c>
       <c r="B333">
-        <v>160.8</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>35674</v>
       </c>
       <c r="B334">
-        <v>161.2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
+        <v>161.19999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>35704</v>
       </c>
@@ -3067,7 +3088,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>35735</v>
       </c>
@@ -3075,15 +3096,15 @@
         <v>161.5</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>35765</v>
       </c>
       <c r="B337">
-        <v>161.3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
+        <v>161.30000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>35796</v>
       </c>
@@ -3091,7 +3112,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>35827</v>
       </c>
@@ -3099,15 +3120,15 @@
         <v>161.9</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>35855</v>
       </c>
       <c r="B340">
-        <v>162.2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>35886</v>
       </c>
@@ -3115,15 +3136,15 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>35916</v>
       </c>
       <c r="B342">
-        <v>162.8</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>35947</v>
       </c>
@@ -3131,15 +3152,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>35977</v>
       </c>
       <c r="B344">
-        <v>163.2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
+        <v>163.19999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>36008</v>
       </c>
@@ -3147,7 +3168,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>36039</v>
       </c>
@@ -3155,7 +3176,7 @@
         <v>163.6</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>36069</v>
       </c>
@@ -3163,7 +3184,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>36100</v>
       </c>
@@ -3171,7 +3192,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>36130</v>
       </c>
@@ -3179,7 +3200,7 @@
         <v>163.9</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>36161</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>164.3</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>36192</v>
       </c>
@@ -3195,7 +3216,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>36220</v>
       </c>
@@ -3203,7 +3224,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>36251</v>
       </c>
@@ -3211,7 +3232,7 @@
         <v>166.2</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>36281</v>
       </c>
@@ -3219,7 +3240,7 @@
         <v>166.2</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>36312</v>
       </c>
@@ -3227,7 +3248,7 @@
         <v>166.2</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>36342</v>
       </c>
@@ -3235,7 +3256,7 @@
         <v>166.7</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>36373</v>
       </c>
@@ -3243,7 +3264,7 @@
         <v>167.1</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>36404</v>
       </c>
@@ -3251,7 +3272,7 @@
         <v>167.9</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>36434</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>168.2</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>36465</v>
       </c>
@@ -3267,7 +3288,7 @@
         <v>168.3</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>36495</v>
       </c>
@@ -3275,7 +3296,7 @@
         <v>168.3</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>36526</v>
       </c>
@@ -3283,7 +3304,7 @@
         <v>168.8</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>36557</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>169.8</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>36586</v>
       </c>
@@ -3299,7 +3320,7 @@
         <v>171.2</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>36617</v>
       </c>
@@ -3307,7 +3328,7 @@
         <v>171.3</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>36647</v>
       </c>
@@ -3315,7 +3336,7 @@
         <v>171.5</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>36678</v>
       </c>
@@ -3323,7 +3344,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>36708</v>
       </c>
@@ -3331,7 +3352,7 @@
         <v>172.8</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>36739</v>
       </c>
@@ -3339,7 +3360,7 @@
         <v>172.8</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>36770</v>
       </c>
@@ -3347,7 +3368,7 @@
         <v>173.7</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>36800</v>
       </c>
@@ -3355,7 +3376,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>36831</v>
       </c>
@@ -3363,7 +3384,7 @@
         <v>174.1</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>36861</v>
       </c>
@@ -3371,7 +3392,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>36892</v>
       </c>
@@ -3379,7 +3400,7 @@
         <v>175.1</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>36923</v>
       </c>
@@ -3387,7 +3408,7 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>36951</v>
       </c>
@@ -3395,7 +3416,7 @@
         <v>176.2</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>36982</v>
       </c>
@@ -3403,7 +3424,7 @@
         <v>176.9</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>37012</v>
       </c>
@@ -3411,7 +3432,7 @@
         <v>177.7</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>37043</v>
       </c>
@@ -3419,7 +3440,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>37073</v>
       </c>
@@ -3427,7 +3448,7 @@
         <v>177.5</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>37104</v>
       </c>
@@ -3435,7 +3456,7 @@
         <v>177.5</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>37135</v>
       </c>
@@ -3443,7 +3464,7 @@
         <v>178.3</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>37165</v>
       </c>
@@ -3451,7 +3472,7 @@
         <v>177.7</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>37196</v>
       </c>
@@ -3459,7 +3480,7 @@
         <v>177.4</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>37226</v>
       </c>
@@ -3467,7 +3488,7 @@
         <v>176.7</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>37257</v>
       </c>
@@ -3475,7 +3496,7 @@
         <v>177.1</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>37288</v>
       </c>
@@ -3483,7 +3504,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>37316</v>
       </c>
@@ -3491,7 +3512,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>37347</v>
       </c>
@@ -3499,7 +3520,7 @@
         <v>179.8</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>37377</v>
       </c>
@@ -3507,7 +3528,7 @@
         <v>179.8</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>37408</v>
       </c>
@@ -3515,7 +3536,7 @@
         <v>179.9</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>37438</v>
       </c>
@@ -3523,7 +3544,7 @@
         <v>180.1</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>37469</v>
       </c>
@@ -3531,7 +3552,7 @@
         <v>180.7</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>37500</v>
       </c>
@@ -3539,7 +3560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>37530</v>
       </c>
@@ -3547,7 +3568,7 @@
         <v>181.3</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>37561</v>
       </c>
@@ -3555,7 +3576,7 @@
         <v>181.3</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>37591</v>
       </c>
@@ -3563,7 +3584,7 @@
         <v>180.9</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>37622</v>
       </c>
@@ -3571,7 +3592,7 @@
         <v>181.7</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>37653</v>
       </c>
@@ -3579,7 +3600,7 @@
         <v>183.1</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>37681</v>
       </c>
@@ -3587,7 +3608,7 @@
         <v>184.2</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>37712</v>
       </c>
@@ -3595,7 +3616,7 @@
         <v>183.8</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>37742</v>
       </c>
@@ -3603,7 +3624,7 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>37773</v>
       </c>
@@ -3611,7 +3632,7 @@
         <v>183.7</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>37803</v>
       </c>
@@ -3619,7 +3640,7 @@
         <v>183.9</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>37834</v>
       </c>
@@ -3627,7 +3648,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>37865</v>
       </c>
@@ -3635,7 +3656,7 @@
         <v>185.2</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>37895</v>
       </c>
@@ -3643,7 +3664,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>37926</v>
       </c>
@@ -3651,7 +3672,7 @@
         <v>184.5</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>37956</v>
       </c>
@@ -3659,7 +3680,7 @@
         <v>184.3</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>37987</v>
       </c>
@@ -3667,7 +3688,7 @@
         <v>185.2</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>38018</v>
       </c>
@@ -3675,7 +3696,7 @@
         <v>186.2</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>38047</v>
       </c>
@@ -3683,7 +3704,7 @@
         <v>187.4</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>38078</v>
       </c>
@@ -3691,7 +3712,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>38108</v>
       </c>
@@ -3699,7 +3720,7 @@
         <v>189.1</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>38139</v>
       </c>
@@ -3707,7 +3728,7 @@
         <v>189.7</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>38169</v>
       </c>
@@ -3715,7 +3736,7 @@
         <v>189.4</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>38200</v>
       </c>
@@ -3723,7 +3744,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>38231</v>
       </c>
@@ -3731,7 +3752,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>38261</v>
       </c>
@@ -3739,7 +3760,7 @@
         <v>190.9</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>38292</v>
       </c>
@@ -3747,7 +3768,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>38322</v>
       </c>
@@ -3755,7 +3776,7 @@
         <v>190.3</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>38353</v>
       </c>
@@ -3763,7 +3784,7 @@
         <v>190.7</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>38384</v>
       </c>
@@ -3771,7 +3792,7 @@
         <v>191.8</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>38412</v>
       </c>
@@ -3779,7 +3800,7 @@
         <v>193.3</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>38443</v>
       </c>
@@ -3787,7 +3808,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>38473</v>
       </c>
@@ -3795,7 +3816,7 @@
         <v>194.4</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>38504</v>
       </c>
@@ -3803,7 +3824,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>38534</v>
       </c>
@@ -3811,7 +3832,7 @@
         <v>195.4</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>38565</v>
       </c>
@@ -3819,7 +3840,7 @@
         <v>196.4</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>38596</v>
       </c>
@@ -3827,7 +3848,7 @@
         <v>198.8</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>38626</v>
       </c>
@@ -3835,7 +3856,7 @@
         <v>199.2</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>38657</v>
       </c>
@@ -3843,7 +3864,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>38687</v>
       </c>
@@ -3851,7 +3872,7 @@
         <v>196.8</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>38718</v>
       </c>
@@ -3859,7 +3880,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>38749</v>
       </c>
@@ -3867,7 +3888,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>38777</v>
       </c>
@@ -3875,7 +3896,7 @@
         <v>199.8</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>38808</v>
       </c>
@@ -3883,7 +3904,7 @@
         <v>201.5</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>38838</v>
       </c>
@@ -3891,7 +3912,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>38869</v>
       </c>
@@ -3899,7 +3920,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>38899</v>
       </c>
@@ -3907,7 +3928,7 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>38930</v>
       </c>
@@ -3915,7 +3936,7 @@
         <v>203.9</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>38961</v>
       </c>
@@ -3923,7 +3944,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>38991</v>
       </c>
@@ -3931,7 +3952,7 @@
         <v>201.8</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>39022</v>
       </c>
@@ -3939,7 +3960,7 @@
         <v>201.5</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>39052</v>
       </c>
@@ -3947,7 +3968,7 @@
         <v>201.8</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>39083</v>
       </c>
@@ -3955,7 +3976,7 @@
         <v>202.416</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>39114</v>
       </c>
@@ -3963,7 +3984,7 @@
         <v>203.499</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>39142</v>
       </c>
@@ -3971,23 +3992,23 @@
         <v>205.352</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>39173</v>
       </c>
       <c r="B449">
-        <v>206.686</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
+        <v>206.68600000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>39203</v>
       </c>
       <c r="B450">
-        <v>207.949</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
+        <v>207.94900000000001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>39234</v>
       </c>
@@ -3995,15 +4016,15 @@
         <v>208.352</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>39264</v>
       </c>
       <c r="B452">
-        <v>208.299</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
+        <v>208.29900000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>39295</v>
       </c>
@@ -4011,7 +4032,7 @@
         <v>207.917</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>39326</v>
       </c>
@@ -4019,23 +4040,23 @@
         <v>208.49</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>39356</v>
       </c>
       <c r="B455">
-        <v>208.936</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
+        <v>208.93600000000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>39387</v>
       </c>
       <c r="B456">
-        <v>210.177</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
+        <v>210.17699999999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>39417</v>
       </c>
@@ -4043,7 +4064,7 @@
         <v>210.036</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>39448</v>
       </c>
@@ -4051,39 +4072,39 @@
         <v>211.08</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>39479</v>
       </c>
       <c r="B459">
-        <v>211.693</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
+        <v>211.69300000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>39508</v>
       </c>
       <c r="B460">
-        <v>213.528</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>213.52799999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>39539</v>
       </c>
       <c r="B461">
-        <v>214.823</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
+        <v>214.82300000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>39569</v>
       </c>
       <c r="B462">
-        <v>216.632</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
+        <v>216.63200000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>39600</v>
       </c>
@@ -4091,7 +4112,7 @@
         <v>218.815</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>39630</v>
       </c>
@@ -4099,47 +4120,47 @@
         <v>219.964</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>39661</v>
       </c>
       <c r="B465">
-        <v>219.086</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
+        <v>219.08600000000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>39692</v>
       </c>
       <c r="B466">
-        <v>218.783</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
+        <v>218.78299999999999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>39722</v>
       </c>
       <c r="B467">
-        <v>216.573</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
+        <v>216.57300000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>39753</v>
       </c>
       <c r="B468">
-        <v>212.425</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
+        <v>212.42500000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>39783</v>
       </c>
       <c r="B469">
-        <v>210.228</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
+        <v>210.22800000000001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>39814</v>
       </c>
@@ -4147,15 +4168,15 @@
         <v>211.143</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>39845</v>
       </c>
       <c r="B471">
-        <v>212.193</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
+        <v>212.19300000000001</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>39873</v>
       </c>
@@ -4163,7 +4184,7 @@
         <v>212.709</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>39904</v>
       </c>
@@ -4171,23 +4192,23 @@
         <v>213.24</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>39934</v>
       </c>
       <c r="B474">
-        <v>213.856</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
+        <v>213.85599999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>39965</v>
       </c>
       <c r="B475">
-        <v>215.693</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
+        <v>215.69300000000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>39995</v>
       </c>
@@ -4195,7 +4216,7 @@
         <v>215.351</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>40026</v>
       </c>
@@ -4203,23 +4224,23 @@
         <v>215.834</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>40057</v>
       </c>
       <c r="B478">
-        <v>215.969</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
+        <v>215.96899999999999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>40087</v>
       </c>
       <c r="B479">
-        <v>216.177</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
+        <v>216.17699999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>40118</v>
       </c>
@@ -4227,31 +4248,31 @@
         <v>216.33</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>40148</v>
       </c>
       <c r="B481">
-        <v>215.949</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
+        <v>215.94900000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>40179</v>
       </c>
       <c r="B482">
-        <v>216.687</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
+        <v>216.68700000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>40210</v>
       </c>
       <c r="B483">
-        <v>216.741</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
+        <v>216.74100000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>40238</v>
       </c>
@@ -4259,15 +4280,15 @@
         <v>217.631</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>40269</v>
       </c>
       <c r="B485">
-        <v>218.009</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
+        <v>218.00899999999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>40299</v>
       </c>
@@ -4275,7 +4296,7 @@
         <v>218.178</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>40330</v>
       </c>
@@ -4283,7 +4304,7 @@
         <v>217.965</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>40360</v>
       </c>
@@ -4291,31 +4312,31 @@
         <v>218.011</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>40391</v>
       </c>
       <c r="B489">
-        <v>218.312</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
+        <v>218.31200000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>40422</v>
       </c>
       <c r="B490">
-        <v>218.439</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
+        <v>218.43899999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>40452</v>
       </c>
       <c r="B491">
-        <v>218.711</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
+        <v>218.71100000000001</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>40483</v>
       </c>
@@ -4323,7 +4344,7 @@
         <v>218.803</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>40513</v>
       </c>
@@ -4331,15 +4352,15 @@
         <v>219.179</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>40544</v>
       </c>
       <c r="B494">
-        <v>220.223</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
+        <v>220.22300000000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>40575</v>
       </c>
@@ -4347,23 +4368,23 @@
         <v>221.309</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>40603</v>
       </c>
       <c r="B496">
-        <v>223.467</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
+        <v>223.46700000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>40634</v>
       </c>
       <c r="B497">
-        <v>224.906</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
+        <v>224.90600000000001</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>40664</v>
       </c>
@@ -4371,15 +4392,15 @@
         <v>225.964</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>40695</v>
       </c>
       <c r="B499">
-        <v>225.722</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
+        <v>225.72200000000001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>40725</v>
       </c>
@@ -4387,31 +4408,31 @@
         <v>225.922</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>40756</v>
       </c>
       <c r="B501">
-        <v>226.545</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
+        <v>226.54499999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>40787</v>
       </c>
       <c r="B502">
-        <v>226.889</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
+        <v>226.88900000000001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>40817</v>
       </c>
       <c r="B503">
-        <v>226.421</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
+        <v>226.42099999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>40848</v>
       </c>
@@ -4419,7 +4440,7 @@
         <v>226.23</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>40878</v>
       </c>
@@ -4427,23 +4448,23 @@
         <v>225.672</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>40909</v>
       </c>
       <c r="B506">
-        <v>226.665</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
+        <v>226.66499999999999</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>40940</v>
       </c>
       <c r="B507">
-        <v>227.663</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
+        <v>227.66300000000001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>40969</v>
       </c>
@@ -4451,15 +4472,15 @@
         <v>229.392</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>41000</v>
       </c>
       <c r="B509">
-        <v>230.085</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2">
+        <v>230.08500000000001</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>41030</v>
       </c>
@@ -4467,47 +4488,47 @@
         <v>229.815</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>41061</v>
       </c>
       <c r="B511">
-        <v>229.478</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
+        <v>229.47800000000001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>41091</v>
       </c>
       <c r="B512">
-        <v>229.104</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
+        <v>229.10400000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>41122</v>
       </c>
       <c r="B513">
-        <v>230.379</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
+        <v>230.37899999999999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>41153</v>
       </c>
       <c r="B514">
-        <v>231.407</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
+        <v>231.40700000000001</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>41183</v>
       </c>
       <c r="B515">
-        <v>231.317</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
+        <v>231.31700000000001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>41214</v>
       </c>
@@ -4515,7 +4536,7 @@
         <v>230.221</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>41244</v>
       </c>
@@ -4523,7 +4544,7 @@
         <v>229.601</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>41275</v>
       </c>
@@ -4531,7 +4552,7 @@
         <v>230.28</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>41306</v>
       </c>
@@ -4539,7 +4560,7 @@
         <v>232.166</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>41334</v>
       </c>
@@ -4547,31 +4568,31 @@
         <v>232.773</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>41365</v>
       </c>
       <c r="B521">
-        <v>232.531</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
+        <v>232.53100000000001</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>41395</v>
       </c>
       <c r="B522">
-        <v>232.945</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
+        <v>232.94499999999999</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>41426</v>
       </c>
       <c r="B523">
-        <v>233.504</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
+        <v>233.50399999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>41456</v>
       </c>
@@ -4579,15 +4600,15 @@
         <v>233.596</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>41487</v>
       </c>
       <c r="B525">
-        <v>233.877</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
+        <v>233.87700000000001</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>41518</v>
       </c>
@@ -4595,31 +4616,31 @@
         <v>234.149</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>41548</v>
       </c>
       <c r="B527">
-        <v>233.546</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
+        <v>233.54599999999999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>41579</v>
       </c>
       <c r="B528">
-        <v>233.069</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
+        <v>233.06899999999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>41609</v>
       </c>
       <c r="B529">
-        <v>233.049</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
+        <v>233.04900000000001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>41640</v>
       </c>
@@ -4627,23 +4648,23 @@
         <v>233.916</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>41671</v>
       </c>
       <c r="B531">
-        <v>234.781</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
+        <v>234.78100000000001</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>41699</v>
       </c>
       <c r="B532">
-        <v>236.293</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
+        <v>236.29300000000001</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>41730</v>
       </c>
@@ -4651,7 +4672,7 @@
         <v>237.072</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>41760</v>
       </c>
@@ -4659,15 +4680,15 @@
         <v>237.9</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>41791</v>
       </c>
       <c r="B535">
-        <v>238.343</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
+        <v>238.34299999999999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>41821</v>
       </c>
@@ -4675,7 +4696,7 @@
         <v>238.25</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>41852</v>
       </c>
@@ -4683,55 +4704,55 @@
         <v>237.852</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>41883</v>
       </c>
       <c r="B538">
-        <v>238.031</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2">
+        <v>238.03100000000001</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>41913</v>
       </c>
       <c r="B539">
-        <v>237.433</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
+        <v>237.43299999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>41944</v>
       </c>
       <c r="B540">
-        <v>236.151</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2">
+        <v>236.15100000000001</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>41974</v>
       </c>
       <c r="B541">
-        <v>234.812</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2">
+        <v>234.81200000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>42005</v>
       </c>
       <c r="B542">
-        <v>233.707</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2">
+        <v>233.70699999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>42036</v>
       </c>
       <c r="B543">
-        <v>234.722</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2">
+        <v>234.72200000000001</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>42064</v>
       </c>
@@ -4739,31 +4760,31 @@
         <v>236.119</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>42095</v>
       </c>
       <c r="B545">
-        <v>236.599</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2">
+        <v>236.59899999999999</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>42125</v>
       </c>
       <c r="B546">
-        <v>237.805</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2">
+        <v>237.80500000000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>42156</v>
       </c>
       <c r="B547">
-        <v>238.638</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2">
+        <v>238.63800000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>42186</v>
       </c>
@@ -4771,7 +4792,7 @@
         <v>238.654</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>42217</v>
       </c>
@@ -4779,39 +4800,39 @@
         <v>238.316</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>42248</v>
       </c>
       <c r="B550">
-        <v>237.945</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
+        <v>237.94499999999999</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>42278</v>
       </c>
       <c r="B551">
-        <v>237.838</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2">
+        <v>237.83799999999999</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>42309</v>
       </c>
       <c r="B552">
-        <v>237.336</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2">
+        <v>237.33600000000001</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>42339</v>
       </c>
       <c r="B553">
-        <v>236.525</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2">
+        <v>236.52500000000001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>42370</v>
       </c>
@@ -4819,23 +4840,23 @@
         <v>236.916</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>42401</v>
       </c>
       <c r="B555">
-        <v>237.111</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2">
+        <v>237.11099999999999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>42430</v>
       </c>
       <c r="B556">
-        <v>238.132</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2">
+        <v>238.13200000000001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>42461</v>
       </c>
@@ -4843,15 +4864,15 @@
         <v>239.261</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="2">
         <v>42491</v>
       </c>
       <c r="B558">
-        <v>240.229</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2">
+        <v>240.22900000000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>42522</v>
       </c>
@@ -4859,23 +4880,23 @@
         <v>241.018</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>42552</v>
       </c>
       <c r="B560">
-        <v>240.628</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2">
+        <v>240.62799999999999</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>42583</v>
       </c>
       <c r="B561">
-        <v>240.849</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
+        <v>240.84899999999999</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>42614</v>
       </c>
@@ -4883,31 +4904,31 @@
         <v>241.428</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>42644</v>
       </c>
       <c r="B563">
-        <v>241.729</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
+        <v>241.72900000000001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>42675</v>
       </c>
       <c r="B564">
-        <v>241.353</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2">
+        <v>241.35300000000001</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>42705</v>
       </c>
       <c r="B565">
-        <v>241.432</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
+        <v>241.43199999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>42736</v>
       </c>
@@ -4915,23 +4936,23 @@
         <v>242.839</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>42767</v>
       </c>
       <c r="B567">
-        <v>243.603</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2">
+        <v>243.60300000000001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>42795</v>
       </c>
       <c r="B568">
-        <v>243.801</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
+        <v>243.80099999999999</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>42826</v>
       </c>
@@ -4939,7 +4960,7 @@
         <v>244.524</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>42856</v>
       </c>
@@ -4947,15 +4968,15 @@
         <v>244.733</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>42887</v>
       </c>
       <c r="B571">
-        <v>244.955</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
+        <v>244.95500000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>42917</v>
       </c>
@@ -4963,36 +4984,36 @@
         <v>244.786</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>42948</v>
       </c>
       <c r="B573">
-        <v>245.519</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
+        <v>245.51900000000001</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>42979</v>
       </c>
       <c r="B574">
-        <v>246.819</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
+        <v>246.81899999999999</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>43009</v>
       </c>
       <c r="B575">
-        <v>246.663</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
+        <v>246.66300000000001</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>43040</v>
       </c>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>43070</v>
       </c>
